--- a/Table/StringText.xlsx
+++ b/Table/StringText.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>cancle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 글자수를 초과했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력이 필요합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}으로 생성하시겠습니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -422,6 +446,50 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/StringText.xlsx
+++ b/Table/StringText.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>{0}으로 생성하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임을 입력해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,6 +494,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/StringText.xlsx
+++ b/Table/StringText.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,27 +58,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>최대 글자수를 초과했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력이 필요합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Nickname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 글자수를 초과했습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력이 필요합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0}으로 생성하시겠습니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>닉네임을 입력해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,43 +464,43 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1001</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -496,17 +508,40 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>1002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1003</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1004</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>